--- a/src/test/resources/testdata/opencarttestdata.xlsx
+++ b/src/test/resources/testdata/opencarttestdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAJAT PARASHAR\eclipse-workspace\OpencartTestingProject\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAJAT PARASHAR\eclipse-workspace\OpenCartProject\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B6A4F5-8C0C-473E-9813-DE6FA895AF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2037F2B3-E11E-4515-AD20-457321D44347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F0F84637-B44C-453B-ABB8-17A6E4189712}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0F84637-B44C-453B-ABB8-17A6E4189712}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -214,13 +214,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B3CC91-9A92-4D78-9BA8-936FFB3672E1}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24A5579-41E0-499A-86C1-61A087727E5B}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -664,7 +663,7 @@
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -684,7 +683,7 @@
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -704,7 +703,7 @@
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
